--- a/XCustPr/doc/61-01-03/PO008_UNIT_TEST_RESULT_new.xlsx
+++ b/XCustPr/doc/61-01-03/PO008_UNIT_TEST_RESULT_new.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ICE_2016\RD\00_PMO_Templates (13-May)\70-Customization\73-Unit Test\PO008\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CASE" sheetId="11" state="hidden" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <definedName name="PorReqDistInterfaceAl" localSheetId="8">distribute6!$A$12:$DP$457</definedName>
     <definedName name="PorReqLinesInterfaceAl" localSheetId="7">line_6!$A$6:$DL$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +37,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -756,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -772,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -804,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -852,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1156,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1196,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1336,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1456,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1516,7 +1511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1556,7 +1551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1576,7 +1571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1616,7 +1611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0">
+    <comment ref="CM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1636,7 +1631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN1" authorId="0" shapeId="0">
+    <comment ref="CN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1656,7 +1651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO1" authorId="0" shapeId="0">
+    <comment ref="CO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1676,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP1" authorId="0" shapeId="0">
+    <comment ref="CP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0" shapeId="0">
+    <comment ref="CQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1716,7 +1711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR1" authorId="0" shapeId="0">
+    <comment ref="CR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS1" authorId="0" shapeId="0">
+    <comment ref="CS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT1" authorId="0" shapeId="0">
+    <comment ref="CT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU1" authorId="0" shapeId="0">
+    <comment ref="CU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1796,7 +1791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV1" authorId="0" shapeId="0">
+    <comment ref="CV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1816,7 +1811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW1" authorId="0" shapeId="0">
+    <comment ref="CW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1836,7 +1831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX1" authorId="0" shapeId="0">
+    <comment ref="CX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1856,7 +1851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY1" authorId="0" shapeId="0">
+    <comment ref="CY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1876,7 +1871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ1" authorId="0" shapeId="0">
+    <comment ref="CZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA1" authorId="0" shapeId="0">
+    <comment ref="DA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1916,7 +1911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB1" authorId="0" shapeId="0">
+    <comment ref="DB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1936,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC1" authorId="0" shapeId="0">
+    <comment ref="DC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD1" authorId="0" shapeId="0">
+    <comment ref="DD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1976,7 +1971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE1" authorId="0" shapeId="0">
+    <comment ref="DE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1996,7 +1991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF1" authorId="0" shapeId="0">
+    <comment ref="DF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2012,7 +2007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG1" authorId="0" shapeId="0">
+    <comment ref="DG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2028,7 +2023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH1" authorId="0" shapeId="0">
+    <comment ref="DH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2044,7 +2039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI1" authorId="0" shapeId="0">
+    <comment ref="DI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2060,7 +2055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ1" authorId="0" shapeId="0">
+    <comment ref="DJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2076,7 +2071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DK1" authorId="0" shapeId="0">
+    <comment ref="DK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2092,7 +2087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DL1" authorId="0" shapeId="0">
+    <comment ref="DL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2108,7 +2103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM1" authorId="0" shapeId="0">
+    <comment ref="DM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN1" authorId="0" shapeId="0">
+    <comment ref="DN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2140,7 +2135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DO1" authorId="0" shapeId="0">
+    <comment ref="DO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2156,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DP1" authorId="0" shapeId="0">
+    <comment ref="DP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2172,7 +2167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DQ1" authorId="0" shapeId="0">
+    <comment ref="DQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2188,7 +2183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DR1" authorId="0" shapeId="0">
+    <comment ref="DR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DS1" authorId="0" shapeId="0">
+    <comment ref="DS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2220,7 +2215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT1" authorId="0" shapeId="0">
+    <comment ref="DT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2236,7 +2231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DU1" authorId="0" shapeId="0">
+    <comment ref="DU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DV1" authorId="0" shapeId="0">
+    <comment ref="DV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2276,7 +2271,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2291,7 +2286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2306,7 +2301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2322,7 +2317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2338,7 +2333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2354,7 +2349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2370,7 +2365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2402,7 +2397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2418,7 +2413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2434,7 +2429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2466,7 +2461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2482,7 +2477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2507,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2522,7 +2517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2547,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2572,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2597,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2622,7 +2617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2647,7 +2642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2672,7 +2667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2722,7 +2717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2748,7 +2743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2774,7 +2769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2800,7 +2795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2826,7 +2821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2852,7 +2847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2878,7 +2873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2904,7 +2899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2930,7 +2925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0">
+    <comment ref="AF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2956,7 +2951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0">
+    <comment ref="AG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2982,7 +2977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0">
+    <comment ref="AH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3002,7 +2997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0">
+    <comment ref="AI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,7 +3017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0">
+    <comment ref="AJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3042,7 +3037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0">
+    <comment ref="AK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3062,7 +3057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0">
+    <comment ref="AL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3082,7 +3077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0">
+    <comment ref="AM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3102,7 +3097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="0" shapeId="0">
+    <comment ref="AN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3122,7 +3117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="0" shapeId="0">
+    <comment ref="AO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3142,7 +3137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0">
+    <comment ref="AP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3162,7 +3157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3182,7 +3177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3202,7 +3197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0">
+    <comment ref="AS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3222,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0" shapeId="0">
+    <comment ref="AT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3242,7 +3237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0">
+    <comment ref="AU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3262,7 +3257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0">
+    <comment ref="AV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0">
+    <comment ref="AW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3302,7 +3297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0">
+    <comment ref="AX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3322,7 +3317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="0" shapeId="0">
+    <comment ref="AY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3342,7 +3337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="0" shapeId="0">
+    <comment ref="AZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3362,7 +3357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="0" shapeId="0">
+    <comment ref="BA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3382,7 +3377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB2" authorId="0" shapeId="0">
+    <comment ref="BB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3402,7 +3397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="0" shapeId="0">
+    <comment ref="BC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3422,7 +3417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="0" shapeId="0">
+    <comment ref="BD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3442,7 +3437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0">
+    <comment ref="BE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3462,7 +3457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="0" shapeId="0">
+    <comment ref="BF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3482,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0">
+    <comment ref="BG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3502,7 +3497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="0" shapeId="0">
+    <comment ref="BH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3522,7 +3517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI2" authorId="0" shapeId="0">
+    <comment ref="BI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="0" shapeId="0">
+    <comment ref="BJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3562,7 +3557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK2" authorId="0" shapeId="0">
+    <comment ref="BK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3582,7 +3577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL2" authorId="0" shapeId="0">
+    <comment ref="BL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3602,7 +3597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM2" authorId="0" shapeId="0">
+    <comment ref="BM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3622,7 +3617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0" shapeId="0">
+    <comment ref="BN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3642,7 +3637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0" shapeId="0">
+    <comment ref="BO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3662,7 +3657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0">
+    <comment ref="BP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3682,7 +3677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="0" shapeId="0">
+    <comment ref="BQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3702,7 +3697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="0" shapeId="0">
+    <comment ref="BR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3722,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS2" authorId="0" shapeId="0">
+    <comment ref="BS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3742,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT2" authorId="0" shapeId="0">
+    <comment ref="BT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3762,7 +3757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU2" authorId="0" shapeId="0">
+    <comment ref="BU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3782,7 +3777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV2" authorId="0" shapeId="0">
+    <comment ref="BV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW2" authorId="0" shapeId="0">
+    <comment ref="BW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3822,7 +3817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX2" authorId="0" shapeId="0">
+    <comment ref="BX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3842,7 +3837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY2" authorId="0" shapeId="0">
+    <comment ref="BY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3862,7 +3857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ2" authorId="0" shapeId="0">
+    <comment ref="BZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3882,7 +3877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA2" authorId="0" shapeId="0">
+    <comment ref="CA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3902,7 +3897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB2" authorId="0" shapeId="0">
+    <comment ref="CB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3922,7 +3917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC2" authorId="0" shapeId="0">
+    <comment ref="CC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3942,7 +3937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD2" authorId="0" shapeId="0">
+    <comment ref="CD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3962,7 +3957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE2" authorId="0" shapeId="0">
+    <comment ref="CE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3982,7 +3977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF2" authorId="0" shapeId="0">
+    <comment ref="CF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3998,7 +3993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG2" authorId="0" shapeId="0">
+    <comment ref="CG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4014,7 +4009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH2" authorId="0" shapeId="0">
+    <comment ref="CH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4030,7 +4025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI2" authorId="0" shapeId="0">
+    <comment ref="CI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4046,7 +4041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ2" authorId="0" shapeId="0">
+    <comment ref="CJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4062,7 +4057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK2" authorId="0" shapeId="0">
+    <comment ref="CK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4078,7 +4073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL2" authorId="0" shapeId="0">
+    <comment ref="CL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4094,7 +4089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM2" authorId="0" shapeId="0">
+    <comment ref="CM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4110,7 +4105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN2" authorId="0" shapeId="0">
+    <comment ref="CN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4126,7 +4121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO2" authorId="0" shapeId="0">
+    <comment ref="CO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4142,7 +4137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP2" authorId="0" shapeId="0">
+    <comment ref="CP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4158,7 +4153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ2" authorId="0" shapeId="0">
+    <comment ref="CQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4174,7 +4169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR2" authorId="0" shapeId="0">
+    <comment ref="CR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4190,7 +4185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS2" authorId="0" shapeId="0">
+    <comment ref="CS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4205,7 +4200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT2" authorId="0" shapeId="0">
+    <comment ref="CT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4221,7 +4216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU2" authorId="0" shapeId="0">
+    <comment ref="CU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4237,7 +4232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV2" authorId="0" shapeId="0">
+    <comment ref="CV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4253,7 +4248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW2" authorId="0" shapeId="0">
+    <comment ref="CW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4269,7 +4264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX2" authorId="0" shapeId="0">
+    <comment ref="CX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4285,7 +4280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY2" authorId="0" shapeId="0">
+    <comment ref="CY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4301,7 +4296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ2" authorId="0" shapeId="0">
+    <comment ref="CZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4317,7 +4312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA2" authorId="0" shapeId="0">
+    <comment ref="DA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4333,7 +4328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB2" authorId="0" shapeId="0">
+    <comment ref="DB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4349,7 +4344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC2" authorId="0" shapeId="0">
+    <comment ref="DC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4365,7 +4360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD2" authorId="0" shapeId="0">
+    <comment ref="DD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4381,7 +4376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE2" authorId="0" shapeId="0">
+    <comment ref="DE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4397,7 +4392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF2" authorId="0" shapeId="0">
+    <comment ref="DF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4413,7 +4408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG2" authorId="0" shapeId="0">
+    <comment ref="DG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4429,7 +4424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH2" authorId="0" shapeId="0">
+    <comment ref="DH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4445,7 +4440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI2" authorId="0" shapeId="0">
+    <comment ref="DI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4461,7 +4456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ2" authorId="0" shapeId="0">
+    <comment ref="DJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4477,7 +4472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DK2" authorId="0" shapeId="0">
+    <comment ref="DK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4493,7 +4488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DL2" authorId="0" shapeId="0">
+    <comment ref="DL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4509,7 +4504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM2" authorId="0" shapeId="0">
+    <comment ref="DM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4525,7 +4520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN2" authorId="0" shapeId="0">
+    <comment ref="DN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4541,7 +4536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DO2" authorId="0" shapeId="0">
+    <comment ref="DO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4557,7 +4552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DP2" authorId="0" shapeId="0">
+    <comment ref="DP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5874,20 +5869,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5926,7 +5921,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5934,12 +5929,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5985,6 +5980,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6069,7 +6070,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
@@ -6077,7 +6078,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6130,6 +6131,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="* Required" xfId="2"/>
@@ -6623,7 +6625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6637,24 +6639,24 @@
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="31.296875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="59.59765625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="25"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>271</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
@@ -6703,7 +6705,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -6714,7 +6716,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
@@ -6725,7 +6727,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
@@ -6736,7 +6738,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
@@ -6747,7 +6749,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
@@ -6758,7 +6760,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -6771,7 +6773,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -6782,7 +6784,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -6807,7 +6809,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6823,24 +6825,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="83.09765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="25" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.8984375" style="25"/>
+    <col min="7" max="7" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6869,7 +6871,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21">
         <v>2</v>
@@ -6892,7 +6894,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21">
         <v>3</v>
@@ -6913,7 +6915,7 @@
       </c>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21">
         <v>4</v>
@@ -6934,7 +6936,7 @@
       </c>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21">
         <v>5</v>
@@ -6955,7 +6957,7 @@
       </c>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21">
         <v>6</v>
@@ -6976,7 +6978,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21">
         <v>7</v>
@@ -6997,7 +6999,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21">
         <v>8</v>
@@ -7018,7 +7020,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21">
         <v>9</v>
@@ -7039,7 +7041,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33">
         <v>10</v>
@@ -7060,7 +7062,7 @@
       </c>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="21">
         <v>11</v>
@@ -7081,7 +7083,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33">
         <v>12</v>
@@ -7102,7 +7104,7 @@
       </c>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="33">
         <v>13</v>
@@ -7123,7 +7125,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33">
         <v>15</v>
@@ -7144,7 +7146,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="33">
         <v>17</v>
@@ -7163,7 +7165,7 @@
       </c>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33">
         <v>19</v>
@@ -7184,7 +7186,7 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33">
         <v>21</v>
@@ -7205,7 +7207,7 @@
       </c>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="33">
         <v>22</v>
@@ -7226,7 +7228,7 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="33">
         <v>23</v>
@@ -7247,7 +7249,7 @@
       </c>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33">
         <v>24</v>
@@ -7270,7 +7272,7 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33">
         <v>25</v>
@@ -7293,7 +7295,7 @@
       </c>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33">
         <v>26</v>
@@ -7314,7 +7316,7 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="33">
         <v>27</v>
@@ -7335,7 +7337,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="32"/>
@@ -7350,7 +7352,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="32"/>
@@ -7365,7 +7367,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
@@ -7380,13 +7382,13 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33">
         <v>29</v>
       </c>
       <c r="C27" s="34"/>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="36" t="s">
         <v>329</v>
       </c>
       <c r="E27" s="35"/>
@@ -7401,13 +7403,13 @@
       </c>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33">
         <v>30</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="36" t="s">
         <v>330</v>
       </c>
       <c r="E28" s="35"/>
@@ -7422,7 +7424,7 @@
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21">
         <v>31</v>
@@ -7469,7 +7471,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7484,7 +7486,7 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7499,7 +7501,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7514,7 +7516,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7529,100 +7531,100 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.8984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.09765625" customWidth="1"/>
-    <col min="62" max="62" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="90" max="98" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="100" max="108" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.8984375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.140625" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="98" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="108" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="19" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.25">
@@ -8005,7 +8007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -9255,52 +9257,52 @@
       <selection activeCell="CE30" sqref="CE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="72" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="74" max="82" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="94" max="114" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="82" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="114" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/XCustPr/doc/61-01-03/PO008_UNIT_TEST_RESULT_new.xlsx
+++ b/XCustPr/doc/61-01-03/PO008_UNIT_TEST_RESULT_new.xlsx
@@ -4826,7 +4826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="336">
   <si>
     <t>NO</t>
   </si>
@@ -5862,6 +5862,12 @@
 Error PO008-026 : Not found Asset Category account  
 3. กรณีที่ไม่เจอรายการ
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอา file excel เข้า หลายๆ file </t>
+  </si>
+  <si>
+    <t>file excel read error</t>
   </si>
 </sst>
 </file>
@@ -6070,7 +6076,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
@@ -6132,6 +6138,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="* Required" xfId="2"/>
@@ -6625,7 +6635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6819,13 +6829,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7192,7 +7202,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="37" t="s">
         <v>315</v>
       </c>
       <c r="E17" s="33"/>
@@ -7430,7 +7440,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="37" t="s">
         <v>333</v>
       </c>
       <c r="E29" s="21"/>
@@ -7444,6 +7454,16 @@
         <v>295</v>
       </c>
       <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="38" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I29">
